--- a/kamus perbaikan.xlsx
+++ b/kamus perbaikan.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="2285">
   <si>
     <t>TIDAK BAKU</t>
   </si>
@@ -6860,19 +6860,61 @@
   </si>
   <si>
     <t>pokoe</t>
+  </si>
+  <si>
+    <t>cantk</t>
+  </si>
+  <si>
+    <t>cantik</t>
+  </si>
+  <si>
+    <t>setres</t>
+  </si>
+  <si>
+    <t>stres</t>
+  </si>
+  <si>
+    <t>tanan</t>
+  </si>
+  <si>
+    <t>taman</t>
+  </si>
+  <si>
+    <t>sholat</t>
+  </si>
+  <si>
+    <t>salat</t>
+  </si>
+  <si>
+    <t>solat</t>
+  </si>
+  <si>
+    <t>koya</t>
+  </si>
+  <si>
+    <t>kota</t>
+  </si>
+  <si>
+    <t>syukaaaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6895,8 +6937,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7217,10 +7260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1371"/>
+  <dimension ref="A1:B1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1349" workbookViewId="0">
-      <selection activeCell="B1367" sqref="B1367"/>
+    <sheetView tabSelected="1" topLeftCell="A1377" workbookViewId="0">
+      <selection activeCell="B1378" sqref="B1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18197,11 +18240,68 @@
         <v>1945</v>
       </c>
     </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1378" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>436</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A1377 A1379:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/kamus perbaikan.xlsx
+++ b/kamus perbaikan.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="2285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="2286">
   <si>
     <t>TIDAK BAKU</t>
   </si>
@@ -6896,6 +6896,9 @@
   </si>
   <si>
     <t>syukaaaa</t>
+  </si>
+  <si>
+    <t>abiz</t>
   </si>
 </sst>
 </file>
@@ -7260,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1378"/>
+  <dimension ref="A1:B1379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1377" workbookViewId="0">
-      <selection activeCell="B1378" sqref="B1378"/>
+      <selection activeCell="A1380" sqref="A1380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18294,6 +18297,14 @@
       </c>
       <c r="B1378" t="s">
         <v>436</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
